--- a/narcos.xlsx
+++ b/narcos.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Desktop\insper\ciencia dos dados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="344">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1075,13 +1080,19 @@
   </si>
   <si>
     <t>ia começar a ver narcos e apareceu um pop up de porno. eu juro pela minha vida que me senti bue indignado</t>
+  </si>
+  <si>
+    <t>Util</t>
+  </si>
+  <si>
+    <t>inutil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,6 +1116,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1114,7 +1132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1137,27 +1155,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1199,7 +1242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1231,9 +1274,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1265,6 +1326,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1440,2543 +1519,4063 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="R1" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="P37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="P44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="P53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="P55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="P62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="P68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="P69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="P71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="P74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="P75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="P81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="P82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="P83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="P85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="P86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="P87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="P88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="P89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="P91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="P92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="P93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="P94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="P95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="P97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="P98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="P99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="P100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="P101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="P102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="P103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="P104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="P105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="P106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="P107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="P108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="P109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="P110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="P111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="P112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="P113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="P114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="P115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="P116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="P117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="P118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="P119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="P120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="P121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="P122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="P123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="P124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="P125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="P126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="P127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="P128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="P129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="P130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="P131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="P132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="P133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="P134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="P135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="P136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="P137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="P138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="P139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="P140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="P141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="P142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="P143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="P144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="P145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="P146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="P147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="P148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="P149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="P150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="P151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="P152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="P153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="P154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="P155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="P156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="P157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="P158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="P159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="P160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="P161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="P162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="P163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="P164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="P165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="P166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="P167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="P168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="P169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="P170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="P171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="P172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="P173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="P174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="P175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="P176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="P177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="P178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="P179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="P180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="P181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="P182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="P183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="P184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="P185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="P186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="P187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="P188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="P189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="P190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="P191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="P192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="P193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="P194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="P195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="P196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="P197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="P198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="P199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="P200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="P201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="P202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="P203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="P204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="P205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="P206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
+      <c r="P207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="P208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="P209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="P210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="P211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="P212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="P213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="P214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="P215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="P216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="P217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="P218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="P219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="P220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="P221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="P222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="P223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="P224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
+      <c r="P225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="P226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
+      <c r="P227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
+      <c r="P228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
+      <c r="P229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
+      <c r="P230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
+      <c r="P231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
+      <c r="P232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
+      <c r="P233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
+      <c r="P234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
+      <c r="P235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
+      <c r="P236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
+      <c r="P237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
+      <c r="P238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
+      <c r="P239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
+      <c r="P240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
+      <c r="P241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
+      <c r="P242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
+      <c r="P243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
+      <c r="P244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
+      <c r="P245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
+      <c r="P246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
+      <c r="P247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
+      <c r="P248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
+      <c r="P249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
+      <c r="P250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
+      <c r="P251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
+      <c r="P252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
+      <c r="P253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
+      <c r="P254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
+      <c r="P255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
+      <c r="P256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
+      <c r="P257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
+      <c r="P258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
+      <c r="P259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
+      <c r="P260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
+      <c r="P261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
+      <c r="P262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
+      <c r="P263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
+      <c r="P264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
+      <c r="P265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
+      <c r="P266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
+      <c r="P267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
+      <c r="P268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
+      <c r="P269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
+      <c r="P270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
+      <c r="P271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
+      <c r="P272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
+      <c r="P273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
+      <c r="P274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
+      <c r="P275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
+      <c r="P276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
+      <c r="P277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
+      <c r="P278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
+      <c r="P279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
+      <c r="P280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
+      <c r="P281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
+      <c r="P282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
+      <c r="P283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
+      <c r="P284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
+      <c r="P285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
+      <c r="P286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
+      <c r="P287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
+      <c r="P288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
+      <c r="P289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
+      <c r="P290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
+      <c r="P291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
+      <c r="P292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
+      <c r="P293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
+      <c r="P294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
+      <c r="P295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
+      <c r="P296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
+      <c r="P297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
+      <c r="P298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
+      <c r="P299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
+      <c r="P300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>216</v>
       </c>
+      <c r="P301">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A94" r:id="rId1"/>
+    <hyperlink ref="A94" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O202"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O202" sqref="O202"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="O87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="O90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="O96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="O98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="O101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="O102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="O103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="O105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="O109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="O111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="O112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="O113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="O114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="O115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="O116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="O117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="O118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="O119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="O120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="O121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="O122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="O123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="O124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="O125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="O126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="O127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="O128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="O129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="O130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="O131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="O132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="O133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="O134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="O135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="O136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="O137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="O138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="O139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="O140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="O141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="O142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="O143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="O144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="O145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="O146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="O147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="O148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="O149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="O150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="O151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="O152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="O153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="O154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="O155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="O156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="O157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="O158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="O159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="O160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="O161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="O162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="O163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="O164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="O165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="O166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="O167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="O168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="O169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="O170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="O171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="O172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="O173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="O174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="O175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="O176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="O177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="O178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="O179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="O180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="O181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="O182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="O183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="O184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="O185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="O186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="O187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="O188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="O189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="O190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="O191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="O192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="O193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="O194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="O195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="O196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="O197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="O198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="O199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="O200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>57</v>
       </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O202" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A55" r:id="rId1"/>
+    <hyperlink ref="A55" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/narcos.xlsx
+++ b/narcos.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Desktop\insper\ciencia dos dados\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="0" windowWidth="24580" windowHeight="15520"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="345">
   <si>
     <t>Treinamento</t>
   </si>
@@ -609,7 +609,9 @@
     <t>terminei a terceira temporada de narcos, que venha a próxima</t>
   </si>
   <si>
-    <t>o que fazer agora? não tem nem previsão de quando volta! malparidos!_x000D__x000D_o jeito é voltar pro narcos..._x000D_kkkkkkk</t>
+    <t>o que fazer agora? não tem nem previsão de quando volta! malparidos!
+o jeito é voltar pro narcos...
+kkkkkkk</t>
   </si>
   <si>
     <t>meu pai começou a assistir narcos, socorro, mais um viciado em séries aparecendo nessa casa</t>
@@ -1082,17 +1084,20 @@
     <t>ia começar a ver narcos e apareceu um pop up de porno. eu juro pela minha vida que me senti bue indignado</t>
   </si>
   <si>
-    <t>Util</t>
-  </si>
-  <si>
-    <t>inutil</t>
+    <t>Relevancia</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Sim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1119,6 +1124,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1157,22 +1170,26 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1183,7 +1200,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1242,7 +1263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1294,7 +1315,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1519,4063 +1540,4076 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="112" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="B1" t="s">
         <v>342</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>35</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>36</v>
       </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>37</v>
       </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>23</v>
       </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>39</v>
       </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>23</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>41</v>
       </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>44</v>
       </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>45</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>46</v>
       </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>10</v>
       </c>
-      <c r="P53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>47</v>
       </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>48</v>
       </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>49</v>
       </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>50</v>
       </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>1</v>
       </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>15</v>
       </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>23</v>
       </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>51</v>
       </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>52</v>
       </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>53</v>
       </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>54</v>
       </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>2</v>
       </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>56</v>
       </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>57</v>
       </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>58</v>
       </c>
-      <c r="P69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>57</v>
       </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>59</v>
       </c>
-      <c r="P71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>26</v>
       </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>60</v>
       </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>10</v>
       </c>
-      <c r="P74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>61</v>
       </c>
-      <c r="P75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>57</v>
       </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>23</v>
       </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>62</v>
       </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>63</v>
       </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>64</v>
       </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>65</v>
       </c>
-      <c r="P81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>12</v>
       </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>66</v>
       </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>57</v>
       </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>67</v>
       </c>
-      <c r="P85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>68</v>
       </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>69</v>
       </c>
-      <c r="P87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>57</v>
       </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>70</v>
       </c>
-      <c r="P89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>12</v>
       </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>71</v>
       </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>72</v>
       </c>
-      <c r="P92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>73</v>
       </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>75</v>
       </c>
-      <c r="P95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>15</v>
       </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>23</v>
       </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>38</v>
       </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>76</v>
       </c>
-      <c r="P99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>77</v>
       </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>23</v>
       </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>23</v>
       </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>78</v>
       </c>
-      <c r="P103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>79</v>
       </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>80</v>
       </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>81</v>
       </c>
-      <c r="P106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>82</v>
       </c>
-      <c r="P107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>83</v>
       </c>
-      <c r="P108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>84</v>
       </c>
-      <c r="P109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>85</v>
       </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>86</v>
       </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B111" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>87</v>
       </c>
-      <c r="P112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B112" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>88</v>
       </c>
-      <c r="P113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>89</v>
       </c>
-      <c r="P114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>90</v>
       </c>
-      <c r="P115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>91</v>
       </c>
-      <c r="P116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B116" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>92</v>
       </c>
-      <c r="P117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>93</v>
       </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B118" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>94</v>
       </c>
-      <c r="P119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>12</v>
       </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>95</v>
       </c>
-      <c r="P121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B121" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>96</v>
       </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>97</v>
       </c>
-      <c r="P123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>98</v>
       </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>12</v>
       </c>
-      <c r="P125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>99</v>
       </c>
-      <c r="P126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>57</v>
       </c>
-      <c r="P127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>23</v>
       </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>100</v>
       </c>
-      <c r="P129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>57</v>
       </c>
-      <c r="P130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B130" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>101</v>
       </c>
-      <c r="P131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>102</v>
       </c>
-      <c r="P132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B132" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>12</v>
       </c>
-      <c r="P133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B133" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>103</v>
       </c>
-      <c r="P134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>104</v>
       </c>
-      <c r="P135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>53</v>
       </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B136" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>105</v>
       </c>
-      <c r="P137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B137" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>12</v>
       </c>
-      <c r="P138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>106</v>
       </c>
-      <c r="P139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>107</v>
       </c>
-      <c r="P140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>108</v>
       </c>
-      <c r="P141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B141" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>109</v>
       </c>
-      <c r="P142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B142" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>110</v>
       </c>
-      <c r="P143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>111</v>
       </c>
-      <c r="P144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B144" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>112</v>
       </c>
-      <c r="P145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B145" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>23</v>
       </c>
-      <c r="P146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B146" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>113</v>
       </c>
-      <c r="P147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B147" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>114</v>
       </c>
-      <c r="P148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B148" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>115</v>
       </c>
-      <c r="P149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B149" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>116</v>
       </c>
-      <c r="P150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B150" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>23</v>
       </c>
-      <c r="P151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B151" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>117</v>
       </c>
-      <c r="P152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>118</v>
       </c>
-      <c r="P153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>57</v>
       </c>
-      <c r="P154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>119</v>
       </c>
-      <c r="P155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B155" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>120</v>
       </c>
-      <c r="P156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B156" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>121</v>
       </c>
-      <c r="P157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B157" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>122</v>
       </c>
-      <c r="P158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B158" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>12</v>
       </c>
-      <c r="P159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>123</v>
       </c>
-      <c r="P160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B160" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>124</v>
       </c>
-      <c r="P161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B161" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>23</v>
       </c>
-      <c r="P162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B162" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>125</v>
       </c>
-      <c r="P163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B163" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>126</v>
       </c>
-      <c r="P164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B164" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>127</v>
       </c>
-      <c r="P165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B165" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>128</v>
       </c>
-      <c r="P166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B166" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>129</v>
       </c>
-      <c r="P167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B167" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>57</v>
       </c>
-      <c r="P168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B168" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>17</v>
       </c>
-      <c r="P169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B169" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>130</v>
       </c>
-      <c r="P170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B170" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>2</v>
       </c>
-      <c r="P171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B171" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>54</v>
       </c>
-      <c r="P172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B172" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>131</v>
       </c>
-      <c r="P173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B173" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>132</v>
       </c>
-      <c r="P174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B174" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>133</v>
       </c>
-      <c r="P175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B175" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>12</v>
       </c>
-      <c r="P176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B176" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>134</v>
       </c>
-      <c r="P177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B177" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>135</v>
       </c>
-      <c r="P178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B178" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>136</v>
       </c>
-      <c r="P179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B179" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>2</v>
       </c>
-      <c r="P180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B180" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>137</v>
       </c>
-      <c r="P181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B181" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>138</v>
       </c>
-      <c r="P182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B182" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>139</v>
       </c>
-      <c r="P183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B183" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>15</v>
       </c>
-      <c r="P184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B184" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>140</v>
       </c>
-      <c r="P185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B185" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>141</v>
       </c>
-      <c r="P186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B186" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>142</v>
       </c>
-      <c r="P187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B187" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>143</v>
       </c>
-      <c r="P188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B188" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>144</v>
       </c>
-      <c r="P189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B189" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>53</v>
       </c>
-      <c r="P190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B190" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>145</v>
       </c>
-      <c r="P191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B191" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>146</v>
       </c>
-      <c r="P192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B192" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>147</v>
       </c>
-      <c r="P193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B193" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>148</v>
       </c>
-      <c r="P194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B194" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>149</v>
       </c>
-      <c r="P195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B195" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>150</v>
       </c>
-      <c r="P196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B196" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>57</v>
       </c>
-      <c r="P197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B197" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>57</v>
       </c>
-      <c r="P198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B198" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>151</v>
       </c>
-      <c r="P199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B199" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>152</v>
       </c>
-      <c r="P200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B200" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>15</v>
       </c>
-      <c r="P201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B201" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>153</v>
       </c>
-      <c r="P202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B202" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>154</v>
       </c>
-      <c r="P203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B203" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>155</v>
       </c>
-      <c r="P204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B204" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>156</v>
       </c>
-      <c r="P205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B205" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>157</v>
       </c>
-      <c r="P206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B206" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>158</v>
       </c>
-      <c r="P207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B207" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>23</v>
       </c>
-      <c r="P208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B208" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>159</v>
       </c>
-      <c r="P209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B209" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>12</v>
       </c>
-      <c r="P210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B210" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>160</v>
       </c>
-      <c r="P211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B211" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>161</v>
       </c>
-      <c r="P212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B212" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>162</v>
       </c>
-      <c r="P213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B213" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>148</v>
       </c>
-      <c r="P214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B214" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>163</v>
       </c>
-      <c r="P215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B215" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>23</v>
       </c>
-      <c r="P216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B216" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>164</v>
       </c>
-      <c r="P217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B217" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>57</v>
       </c>
-      <c r="P218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B218" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>57</v>
       </c>
-      <c r="P219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B219" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>165</v>
       </c>
-      <c r="P220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B220" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>166</v>
       </c>
-      <c r="P221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B221" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>167</v>
       </c>
-      <c r="P222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B222" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>168</v>
       </c>
-      <c r="P223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B223" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>134</v>
       </c>
-      <c r="P224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B224" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>169</v>
       </c>
-      <c r="P225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B225" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>170</v>
       </c>
-      <c r="P226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B226" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>144</v>
       </c>
-      <c r="P227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B227" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>57</v>
       </c>
-      <c r="P228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B228" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>171</v>
       </c>
-      <c r="P229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B229" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>172</v>
       </c>
-      <c r="P230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B230" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>173</v>
       </c>
-      <c r="P231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B231" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>57</v>
       </c>
-      <c r="P232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B232" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>174</v>
       </c>
-      <c r="P233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B233" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>96</v>
       </c>
-      <c r="P234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B234" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>175</v>
       </c>
-      <c r="P235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B235" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>176</v>
       </c>
-      <c r="P236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B236" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>177</v>
       </c>
-      <c r="P237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B237" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>178</v>
       </c>
-      <c r="P238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B238" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>179</v>
       </c>
-      <c r="P239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B239" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>180</v>
       </c>
-      <c r="P240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B240" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>181</v>
       </c>
-      <c r="P241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B241" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>182</v>
       </c>
-      <c r="P242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B242" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>183</v>
       </c>
-      <c r="P243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B243" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>184</v>
       </c>
-      <c r="P244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B244" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>185</v>
       </c>
-      <c r="P245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B245" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>23</v>
       </c>
-      <c r="P246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B246" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>186</v>
       </c>
-      <c r="P247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B247" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>187</v>
       </c>
-      <c r="P248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B248" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>2</v>
       </c>
-      <c r="P249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B249" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>57</v>
       </c>
-      <c r="P250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B250" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>57</v>
       </c>
-      <c r="P251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B251" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>188</v>
       </c>
-      <c r="P252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B252" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>57</v>
       </c>
-      <c r="P253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B253" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>57</v>
       </c>
-      <c r="P254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B254" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>23</v>
       </c>
-      <c r="P255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B255" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>2</v>
       </c>
-      <c r="P256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B256" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>23</v>
       </c>
-      <c r="P257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B257" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>189</v>
       </c>
-      <c r="P258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B258" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
         <v>57</v>
       </c>
-      <c r="P259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B259" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>57</v>
       </c>
-      <c r="P260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B260" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
         <v>190</v>
       </c>
-      <c r="P261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B261" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>191</v>
       </c>
-      <c r="P262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B262" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>192</v>
       </c>
-      <c r="P263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B263" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>193</v>
       </c>
-      <c r="P264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B264" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>12</v>
       </c>
-      <c r="P265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B265" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>194</v>
       </c>
-      <c r="P266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B266" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
         <v>195</v>
       </c>
-      <c r="P267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B267" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
         <v>196</v>
       </c>
-      <c r="P268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B268" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
         <v>139</v>
       </c>
-      <c r="P269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B269" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
         <v>197</v>
       </c>
-      <c r="P270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B270" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>198</v>
       </c>
-      <c r="P271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B271" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>45</v>
       </c>
-      <c r="P272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B272" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>199</v>
       </c>
-      <c r="P273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B273" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>200</v>
       </c>
-      <c r="P274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B274" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>201</v>
       </c>
-      <c r="P275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B275" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>23</v>
       </c>
-      <c r="P276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B276" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>142</v>
       </c>
-      <c r="P277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B277" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>202</v>
       </c>
-      <c r="P278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B278" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>203</v>
       </c>
-      <c r="P279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B279" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>15</v>
       </c>
-      <c r="P280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B280" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>204</v>
       </c>
-      <c r="P281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B281" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>53</v>
       </c>
-      <c r="P282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B282" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>205</v>
       </c>
-      <c r="P283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B283" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>12</v>
       </c>
-      <c r="P284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B284" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
         <v>206</v>
       </c>
-      <c r="P285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B285" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>207</v>
       </c>
-      <c r="P286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B286" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>10</v>
       </c>
-      <c r="P287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B287" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>12</v>
       </c>
-      <c r="P288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B288" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>208</v>
       </c>
-      <c r="P289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B289" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>15</v>
       </c>
-      <c r="P290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B290" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>209</v>
       </c>
-      <c r="P291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B291" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>210</v>
       </c>
-      <c r="P292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B292" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>211</v>
       </c>
-      <c r="P293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B293" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>212</v>
       </c>
-      <c r="P294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B294" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>213</v>
       </c>
-      <c r="P295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B295" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>12</v>
       </c>
-      <c r="P296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B296" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>23</v>
       </c>
-      <c r="P297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B297" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>214</v>
       </c>
-      <c r="P298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B298" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
       <c r="A299" t="s">
         <v>215</v>
       </c>
-      <c r="P299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B299" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
       <c r="A300" t="s">
         <v>23</v>
       </c>
-      <c r="P300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B300" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
         <v>216</v>
       </c>
-      <c r="P301">
-        <v>0</v>
+      <c r="B301" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A94" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A94" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O202" sqref="O202"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="109.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>142</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>218</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>219</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>85</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>220</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>221</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>222</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>223</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>224</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>225</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>226</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>139</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>227</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>228</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>229</v>
       </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>148</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>195</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>230</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>231</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>232</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>202</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>233</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>234</v>
       </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>235</v>
       </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>163</v>
       </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>236</v>
       </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>237</v>
       </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>238</v>
       </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>239</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>23</v>
       </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>240</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>139</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>241</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>242</v>
       </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>243</v>
       </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>244</v>
       </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>17</v>
       </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>12</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>245</v>
       </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>23</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>85</v>
       </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>247</v>
       </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>248</v>
       </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>249</v>
       </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>250</v>
       </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>251</v>
       </c>
-      <c r="O60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>252</v>
       </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>12</v>
       </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>253</v>
       </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>254</v>
       </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>255</v>
       </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>256</v>
       </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>257</v>
       </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>163</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>258</v>
       </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>12</v>
       </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>195</v>
       </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>259</v>
       </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>23</v>
       </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>260</v>
       </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>261</v>
       </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>262</v>
       </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>263</v>
       </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>264</v>
       </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>265</v>
       </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>266</v>
       </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>54</v>
       </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>267</v>
       </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>268</v>
       </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>57</v>
       </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>57</v>
       </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>269</v>
       </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>270</v>
       </c>
-      <c r="O87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>2</v>
       </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>57</v>
       </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>271</v>
       </c>
-      <c r="O90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>272</v>
       </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>273</v>
       </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>23</v>
       </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>274</v>
       </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>57</v>
       </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>275</v>
       </c>
-      <c r="O96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>57</v>
       </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>276</v>
       </c>
-      <c r="O98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>277</v>
       </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>278</v>
       </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>279</v>
       </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>280</v>
       </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>204</v>
       </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>54</v>
       </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>12</v>
       </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>281</v>
       </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>282</v>
       </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>15</v>
       </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>283</v>
       </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>111</v>
       </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>284</v>
       </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B111" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>2</v>
       </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B112" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>285</v>
       </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>85</v>
       </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>286</v>
       </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>287</v>
       </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B116" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>288</v>
       </c>
-      <c r="O117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>289</v>
       </c>
-      <c r="O118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B118" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>2</v>
       </c>
-      <c r="O119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>15</v>
       </c>
-      <c r="O120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>163</v>
       </c>
-      <c r="O121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B121" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>12</v>
       </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>290</v>
       </c>
-      <c r="O123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>2</v>
       </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>291</v>
       </c>
-      <c r="O125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>292</v>
       </c>
-      <c r="O126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>1</v>
       </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>293</v>
       </c>
-      <c r="O128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>294</v>
       </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>295</v>
       </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B130" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>296</v>
       </c>
-      <c r="O131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>297</v>
       </c>
-      <c r="O132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B132" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>298</v>
       </c>
-      <c r="O133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B133" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>299</v>
       </c>
-      <c r="O134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>57</v>
       </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>15</v>
       </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B136" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>300</v>
       </c>
-      <c r="O137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B137" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>301</v>
       </c>
-      <c r="O138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>302</v>
       </c>
-      <c r="O139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>23</v>
       </c>
-      <c r="O140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>303</v>
       </c>
-      <c r="O141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B141" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>17</v>
       </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B142" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>85</v>
       </c>
-      <c r="O143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>57</v>
       </c>
-      <c r="O144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B144" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>304</v>
       </c>
-      <c r="O145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B145" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>305</v>
       </c>
-      <c r="O146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B146" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>306</v>
       </c>
-      <c r="O147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B147" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>307</v>
       </c>
-      <c r="O148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B148" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>23</v>
       </c>
-      <c r="O149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B149" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>308</v>
       </c>
-      <c r="O150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B150" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>309</v>
       </c>
-      <c r="O151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B151" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>310</v>
       </c>
-      <c r="O152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>12</v>
       </c>
-      <c r="O153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>311</v>
       </c>
-      <c r="O154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>312</v>
       </c>
-      <c r="O155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B155" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>313</v>
       </c>
-      <c r="O156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B156" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>57</v>
       </c>
-      <c r="O157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B157" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>314</v>
       </c>
-      <c r="O158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B158" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>315</v>
       </c>
-      <c r="O159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>54</v>
       </c>
-      <c r="O160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B160" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>316</v>
       </c>
-      <c r="O161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B161" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>317</v>
       </c>
-      <c r="O162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B162" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>10</v>
       </c>
-      <c r="O163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B163" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>2</v>
       </c>
-      <c r="O164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B164" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>318</v>
       </c>
-      <c r="O165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B165" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>319</v>
       </c>
-      <c r="O166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B166" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>15</v>
       </c>
-      <c r="O167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B167" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>320</v>
       </c>
-      <c r="O168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B168" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>321</v>
       </c>
-      <c r="O169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B169" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>53</v>
       </c>
-      <c r="O170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B170" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>322</v>
       </c>
-      <c r="O171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B171" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>57</v>
       </c>
-      <c r="O172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B172" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>323</v>
       </c>
-      <c r="O173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B173" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>324</v>
       </c>
-      <c r="O174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B174" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>325</v>
       </c>
-      <c r="O175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B175" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>23</v>
       </c>
-      <c r="O176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B176" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>326</v>
       </c>
-      <c r="O177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B177" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>204</v>
       </c>
-      <c r="O178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B178" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>327</v>
       </c>
-      <c r="O179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B179" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>328</v>
       </c>
-      <c r="O180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B180" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>12</v>
       </c>
-      <c r="O181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B181" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>329</v>
       </c>
-      <c r="O182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B182" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>15</v>
       </c>
-      <c r="O183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B183" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>330</v>
       </c>
-      <c r="O184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B184" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>163</v>
       </c>
-      <c r="O185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B185" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>331</v>
       </c>
-      <c r="O186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B186" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>23</v>
       </c>
-      <c r="O187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B187" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>332</v>
       </c>
-      <c r="O188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B188" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>333</v>
       </c>
-      <c r="O189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B189" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>57</v>
       </c>
-      <c r="O190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B190" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>334</v>
       </c>
-      <c r="O191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B191" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>57</v>
       </c>
-      <c r="O192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B192" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15">
       <c r="A193" t="s">
         <v>335</v>
       </c>
-      <c r="O193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B193" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15">
       <c r="A194" t="s">
         <v>336</v>
       </c>
-      <c r="O194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B194" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15">
       <c r="A195" t="s">
         <v>2</v>
       </c>
-      <c r="O195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B195" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15">
       <c r="A196" t="s">
         <v>337</v>
       </c>
-      <c r="O196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B196" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15">
       <c r="A197" t="s">
         <v>338</v>
       </c>
-      <c r="O197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B197" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15">
       <c r="A198" t="s">
         <v>339</v>
       </c>
-      <c r="O198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B198" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15">
       <c r="A199" t="s">
         <v>340</v>
       </c>
-      <c r="O199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B199" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15">
       <c r="A200" t="s">
         <v>341</v>
       </c>
-      <c r="O200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B200" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15">
       <c r="A201" t="s">
         <v>57</v>
       </c>
-      <c r="O201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B201" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15">
       <c r="O202" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A55" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A55" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>